--- a/assets/tabulados/R10_responsable_horario.xlsx
+++ b/assets/tabulados/R10_responsable_horario.xlsx
@@ -6,8 +6,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Responsable_horario" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Responsable_horario'!$A$1:$Q$17</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -624,8 +627,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="0.0&quot;%&quot;"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -633,16 +639,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F4E79"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -650,12 +672,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,912 +1001,934 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="true">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="7.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="13.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="15.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="17.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="19.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="9.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="10.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="12.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="22.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="8.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="8.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="8.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="8.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="2" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>

--- a/assets/tabulados/R10_responsable_horario.xlsx
+++ b/assets/tabulados/R10_responsable_horario.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t xml:space="preserve">responsible</t>
   </si>
@@ -74,553 +74,580 @@
     <t xml:space="preserve">AM</t>
   </si>
   <si>
+    <t xml:space="preserve">425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CatalinaJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38,07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:08:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33,23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:08:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CristianG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:03:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:03:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:04:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:08:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:04:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:08:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DanielaV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,60</t>
+  </si>
+  <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,38</t>
+    <t xml:space="preserve">7,83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:03:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:03:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:06:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16,37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:03:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:03:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:07:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HoracioM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:05:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16,88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:07:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MarcelaP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:07:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:56</t>
+    <t xml:space="preserve">3,64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:06:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RodolfoV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:14</t>
   </si>
   <si>
     <t xml:space="preserve">00:01:40</t>
   </si>
   <si>
-    <t xml:space="preserve">00:00:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:03:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16,67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,33</t>
+    <t xml:space="preserve">00:01:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:08:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46,53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:06:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThiareM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:07:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">324</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">00:01:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CatalinaJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39,65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:08:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:08:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CristianG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30,23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:03:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:03:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:04:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:08:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:04:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:08:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DanielaV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:03:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:03:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:06:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16,37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:03:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:03:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:07:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HoracioM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:05:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:07:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MarcelaP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:07:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:06:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RodolfoV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:03:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:05:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:08:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29,63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:03:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:04:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:06:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThiareM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:07:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,05</t>
+    <t xml:space="preserve">2,78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,95</t>
   </si>
   <si>
     <t xml:space="preserve">286</t>
   </si>
   <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:10</t>
+    <t xml:space="preserve">00:01:42</t>
   </si>
 </sst>
 </file>
@@ -1143,57 +1170,57 @@
         <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
@@ -1202,51 +1229,51 @@
         <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>20</v>
@@ -1255,51 +1282,51 @@
         <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>20</v>
@@ -1308,157 +1335,157 @@
         <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>20</v>
@@ -1467,51 +1494,51 @@
         <v>21</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>20</v>
@@ -1520,51 +1547,51 @@
         <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>20</v>
@@ -1573,51 +1600,51 @@
         <v>21</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>20</v>
@@ -1626,157 +1653,157 @@
         <v>21</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>20</v>
@@ -1788,48 +1815,48 @@
         <v>22</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>179</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>20</v>
@@ -1838,51 +1865,51 @@
         <v>21</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>20</v>
@@ -1891,40 +1918,40 @@
         <v>21</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
